--- a/FIGS_Automations/FIGS_Automations/FIGS_Automations/testdata/AccountOpening.xlsx
+++ b/FIGS_Automations/FIGS_Automations/FIGS_Automations/testdata/AccountOpening.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="1075">
   <si>
     <t>0</t>
   </si>
@@ -3829,6 +3829,63 @@
   </si>
   <si>
     <t>Pass : 18/11/2025 4:10:26 pm</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:19:27 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:22:06 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:22:07 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:22:09 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:22:10 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:25:45 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:25:46 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:25:48 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:25:49 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:25:50 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:25:51 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:26:31 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:26:33 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:26:35 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:26:36 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:26:38 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:26:39 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:26:41 am</t>
+  </si>
+  <si>
+    <t>Pass : 19/11/2025 11:26:42 am</t>
   </si>
 </sst>
 </file>
@@ -4740,14 +4797,14 @@
         <v>970</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>1041</v>
+        <v>1061</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="12" t="str">
         <f>LEFT(J3,   4)</f>
-        <v>Pass : 18/11/2025 4:10:01 pm</v>
+        <v>Pass : 19/11/2025 11:25:45 am</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>28</v>
@@ -4778,14 +4835,14 @@
         <v>36</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>1042</v>
+        <v>1062</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="shared" ref="L4:L11" si="0">LEFT(J4,         4)</f>
-        <v>Pass : 18/11/2025 4:10:02 pm</v>
+        <v>Pass : 19/11/2025 11:25:46 am</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>28</v>
@@ -4820,14 +4877,14 @@
         <v>684</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>1043</v>
+        <v>1063</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 18/11/2025 4:10:03 pm</v>
+        <v>Pass : 19/11/2025 11:25:48 am</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>1</v>
@@ -4946,14 +5003,14 @@
         <v>60</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>1044</v>
+        <v>1064</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 18/11/2025 4:10:05 pm</v>
+        <v>Pass : 19/11/2025 11:25:49 am</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>28</v>
@@ -5111,14 +5168,14 @@
         <v>83</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" ref="L12:L75" si="1">LEFT(J12,4)</f>
-        <v>Pass : 18/11/2025 4:10:06 pm</v>
+        <v>Pass : 19/11/2025 11:25:50 am</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>1</v>
@@ -5153,14 +5210,14 @@
         <v>685</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>1045</v>
+        <v>1066</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:06 pm</v>
+        <v>Pass : 19/11/2025 11:25:51 am</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>1</v>
@@ -5195,14 +5252,14 @@
         <v>686</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:07 pm</v>
+        <v>Pass : 19/11/2025 11:25:51 am</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>1</v>
@@ -5237,14 +5294,14 @@
         <v>687</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:07 pm</v>
+        <v>Pass : 19/11/2025 11:25:51 am</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>1</v>
@@ -5279,14 +5336,14 @@
         <v>688</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:07 pm</v>
+        <v>Pass : 19/11/2025 11:25:51 am</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>1</v>
@@ -5321,14 +5378,14 @@
         <v>819</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:07 pm</v>
+        <v>Pass : 19/11/2025 11:25:51 am</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>1</v>
@@ -5363,14 +5420,14 @@
         <v>112</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:07 pm</v>
+        <v>Pass : 19/11/2025 11:25:51 am</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>1</v>
@@ -5405,14 +5462,14 @@
         <v>118</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>1047</v>
+        <v>1067</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:15 pm</v>
+        <v>Pass : 19/11/2025 11:26:31 am</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>28</v>
@@ -5447,14 +5504,14 @@
         <v>83</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>1048</v>
+        <v>1068</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:16 pm</v>
+        <v>Pass : 19/11/2025 11:26:33 am</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>1</v>
@@ -5489,14 +5546,14 @@
         <v>689</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:17 pm</v>
+        <v>Pass : 19/11/2025 11:26:33 am</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>1</v>
@@ -5531,14 +5588,14 @@
         <v>690</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:17 pm</v>
+        <v>Pass : 19/11/2025 11:26:33 am</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>3</v>
@@ -5655,14 +5712,14 @@
         <v>146</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:17 pm</v>
+        <v>Pass : 19/11/2025 11:26:33 am</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>1</v>
@@ -5697,14 +5754,14 @@
         <v>694</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>1050</v>
+        <v>1069</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:18 pm</v>
+        <v>Pass : 19/11/2025 11:26:35 am</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>2</v>
@@ -5739,14 +5796,14 @@
         <v>695</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="12" t="str">
         <f>LEFT(J27,4)</f>
-        <v>Pass : 18/11/2025 4:10:20 pm</v>
+        <v>Pass : 19/11/2025 11:26:36 am</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>1</v>
@@ -5781,14 +5838,14 @@
         <v>690</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="12" t="str">
         <f>LEFT(J28,4)</f>
-        <v>Pass : 18/11/2025 4:10:21 pm</v>
+        <v>Pass : 19/11/2025 11:26:38 am</v>
       </c>
       <c r="M28" s="17" t="s">
         <v>2</v>
@@ -5823,14 +5880,14 @@
         <v>161</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:23 pm</v>
+        <v>Pass : 19/11/2025 11:26:39 am</v>
       </c>
       <c r="M29" s="10" t="s">
         <v>1</v>
@@ -5865,14 +5922,14 @@
         <v>167</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>1054</v>
+        <v>1073</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:24 pm</v>
+        <v>Pass : 19/11/2025 11:26:41 am</v>
       </c>
       <c r="M30" s="18" t="s">
         <v>1</v>
@@ -5907,14 +5964,14 @@
         <v>173</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>1055</v>
+        <v>1074</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 18/11/2025 4:10:26 pm</v>
+        <v>Pass : 19/11/2025 11:26:42 am</v>
       </c>
       <c r="M31" s="10" t="s">
         <v>3</v>
